--- a/foundPath/40000pathNodes.xlsx
+++ b/foundPath/40000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="20" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -132,10 +132,10 @@
         <v>660</v>
       </c>
       <c r="C4" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0">
-        <v>4.4444444444444446</v>
+        <v>4.0404040404040407</v>
       </c>
     </row>
     <row r="5">
@@ -143,13 +143,13 @@
         <v>890</v>
       </c>
       <c r="B5" s="0">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C5" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0">
-        <v>6.0444444444444443</v>
+        <v>4.7070707070707076</v>
       </c>
     </row>
     <row r="6">
@@ -157,13 +157,13 @@
         <v>890</v>
       </c>
       <c r="B6" s="0">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="C6" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0">
-        <v>7.2209150326797387</v>
+        <v>5.2953060011883544</v>
       </c>
     </row>
     <row r="7">
@@ -171,965 +171,965 @@
         <v>890</v>
       </c>
       <c r="B7" s="0">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="C7" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0">
-        <v>8.1965247887772996</v>
+        <v>5.8216217906620384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B8" s="0">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="C8" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="0">
-        <v>8.8114002506786449</v>
+        <v>6.7518543488015732</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B9" s="0">
-        <v>740</v>
+        <v>820</v>
       </c>
       <c r="C9" s="0">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0">
-        <v>9.2195635159847669</v>
+        <v>10.611503471608589</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="B10" s="0">
-        <v>780</v>
+        <v>830</v>
       </c>
       <c r="C10" s="0">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D10" s="0">
-        <v>10.83646768289365</v>
+        <v>10.901358544072361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="B11" s="0">
-        <v>840</v>
+        <v>930</v>
       </c>
       <c r="C11" s="0">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D11" s="0">
-        <v>12.905433200135031</v>
+        <v>14.19639973132511</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>910</v>
+        <v>860</v>
       </c>
       <c r="B12" s="0">
-        <v>850</v>
+        <v>980</v>
       </c>
       <c r="C12" s="0">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D12" s="0">
-        <v>13.213125507827341</v>
+        <v>16.308229067456288</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>910</v>
+        <v>850</v>
       </c>
       <c r="B13" s="0">
-        <v>870</v>
+        <v>990</v>
       </c>
       <c r="C13" s="0">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D13" s="0">
-        <v>13.801360801944989</v>
+        <v>16.951053413989509</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>910</v>
+        <v>840</v>
       </c>
       <c r="B14" s="0">
-        <v>930</v>
+        <v>1000</v>
       </c>
       <c r="C14" s="0">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D14" s="0">
-        <v>15.647514648098831</v>
+        <v>17.658160195176059</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>890</v>
+        <v>820</v>
       </c>
       <c r="B15" s="0">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="C15" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D15" s="0">
-        <v>17.60575639614774</v>
+        <v>19.476342013357879</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="B16" s="0">
-        <v>1010</v>
+        <v>990</v>
       </c>
       <c r="C16" s="0">
-        <v>21.15849451705736</v>
+        <v>12</v>
       </c>
       <c r="D16" s="0">
-        <v>19.77220486996108</v>
+        <v>22.916446594126779</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>830</v>
+        <v>790</v>
       </c>
       <c r="B17" s="0">
-        <v>1020</v>
+        <v>980</v>
       </c>
       <c r="C17" s="0">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D17" s="0">
-        <v>20.700833557349881</v>
+        <v>23.964012195884631</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="B18" s="0">
-        <v>1020</v>
+        <v>970</v>
       </c>
       <c r="C18" s="0">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D18" s="0">
-        <v>21.092990420094971</v>
+        <v>24.821111324595599</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>810</v>
+        <v>760</v>
       </c>
       <c r="B19" s="0">
-        <v>1010</v>
+        <v>930</v>
       </c>
       <c r="C19" s="0">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19" s="0">
-        <v>21.658675845044211</v>
+        <v>27.00264105874173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>810</v>
+        <v>730</v>
       </c>
       <c r="B20" s="0">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="C20" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="0">
-        <v>22.03603433561025</v>
+        <v>29.740683480170048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>810</v>
+        <v>710</v>
       </c>
       <c r="B21" s="0">
-        <v>940</v>
+        <v>850</v>
       </c>
       <c r="C21" s="0">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D21" s="0">
-        <v>24.03603433561025</v>
+        <v>30.895143531086859</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>780</v>
+        <v>630</v>
       </c>
       <c r="B22" s="0">
-        <v>870</v>
+        <v>820</v>
       </c>
       <c r="C22" s="0">
-        <v>26.30755934135615</v>
+        <v>19.27204019518533</v>
       </c>
       <c r="D22" s="0">
-        <v>26.604264487193401</v>
+        <v>34.937533586483653</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>750</v>
+        <v>620</v>
       </c>
       <c r="B23" s="0">
         <v>820</v>
       </c>
       <c r="C23" s="0">
-        <v>32</v>
+        <v>20.379030654534951</v>
       </c>
       <c r="D23" s="0">
-        <v>28.604331703421249</v>
+        <v>35.441933583038633</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>740</v>
+        <v>590</v>
       </c>
       <c r="B24" s="0">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="C24" s="0">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D24" s="0">
-        <v>28.912024011113559</v>
+        <v>36.867056039986757</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>730</v>
+        <v>520</v>
       </c>
       <c r="B25" s="0">
-        <v>820</v>
+        <v>880</v>
       </c>
       <c r="C25" s="0">
-        <v>34</v>
+        <v>25.79757424973122</v>
       </c>
       <c r="D25" s="0">
-        <v>29.21053147380012</v>
+        <v>40.321973431706517</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>670</v>
+        <v>490</v>
       </c>
       <c r="B26" s="0">
-        <v>810</v>
+        <v>890</v>
       </c>
       <c r="C26" s="0">
-        <v>31</v>
+        <v>23.529934170619271</v>
       </c>
       <c r="D26" s="0">
-        <v>31.082150713891881</v>
+        <v>41.604129275954989</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>610</v>
+        <v>460</v>
       </c>
       <c r="B27" s="0">
-        <v>820</v>
+        <v>890</v>
       </c>
       <c r="C27" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D27" s="0">
-        <v>33.144104113992967</v>
+        <v>42.866491638684479</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="B28" s="0">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="C28" s="0">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D28" s="0">
-        <v>35.314654702953263</v>
+        <v>46.138786239903681</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="B29" s="0">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="C29" s="0">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D29" s="0">
-        <v>37.514065828362888</v>
+        <v>46.924460441222067</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="B30" s="0">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="C30" s="0">
-        <v>24</v>
+        <v>20.379030654534951</v>
       </c>
       <c r="D30" s="0">
-        <v>38.995547309844369</v>
+        <v>49.659502273194811</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="B31" s="0">
-        <v>880</v>
+        <v>770</v>
       </c>
       <c r="C31" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D31" s="0">
-        <v>40.683145783429119</v>
+        <v>51.109512074075063</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="B32" s="0">
-        <v>860</v>
+        <v>740</v>
       </c>
       <c r="C32" s="0">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D32" s="0">
-        <v>41.42850177592905</v>
+        <v>52.514968811927673</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B33" s="0">
-        <v>840</v>
+        <v>680</v>
       </c>
       <c r="C33" s="0">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D33" s="0">
-        <v>42.127273018897732</v>
+        <v>55.342852165232763</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="B34" s="0">
-        <v>770</v>
+        <v>600</v>
       </c>
       <c r="C34" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D34" s="0">
-        <v>44.334743484365532</v>
+        <v>59.07272788899931</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="B35" s="0">
-        <v>760</v>
+        <v>520</v>
       </c>
       <c r="C35" s="0">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D35" s="0">
-        <v>44.608716087105257</v>
+        <v>62.503266482474437</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="B36" s="0">
-        <v>740</v>
+        <v>460</v>
       </c>
       <c r="C36" s="0">
-        <v>39</v>
+        <v>20.961723555504101</v>
       </c>
       <c r="D36" s="0">
-        <v>45.135031876578942</v>
+        <v>65.150148304890251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="B37" s="0">
-        <v>720</v>
+        <v>430</v>
       </c>
       <c r="C37" s="0">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D37" s="0">
-        <v>45.635031876578942</v>
+        <v>66.484616720584583</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="B38" s="0">
-        <v>670</v>
+        <v>410</v>
       </c>
       <c r="C38" s="0">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D38" s="0">
-        <v>46.854544071700893</v>
+        <v>67.575381587657645</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="B39" s="0">
-        <v>660</v>
+        <v>400</v>
       </c>
       <c r="C39" s="0">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D39" s="0">
-        <v>47.098446510725282</v>
+        <v>68.361055788976032</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="B40" s="0">
-        <v>640</v>
+        <v>380</v>
       </c>
       <c r="C40" s="0">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D40" s="0">
-        <v>47.586251388774059</v>
+        <v>70.038056382215103</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="B41" s="0">
-        <v>620</v>
+        <v>370</v>
       </c>
       <c r="C41" s="0">
-        <v>41</v>
+        <v>21.62096934546506</v>
       </c>
       <c r="D41" s="0">
-        <v>48.074056266822843</v>
+        <v>71.845604834066449</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B42" s="0">
-        <v>610</v>
+        <v>370</v>
       </c>
       <c r="C42" s="0">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D42" s="0">
-        <v>48.317958705847232</v>
+        <v>72.293824590234351</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="B43" s="0">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="C43" s="0">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D43" s="0">
-        <v>48.705414476360403</v>
+        <v>74.333432395671466</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="B44" s="0">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="C44" s="0">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D44" s="0">
-        <v>49.562513605071373</v>
+        <v>75.573541282012002</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>530</v>
+        <v>350</v>
       </c>
       <c r="B45" s="0">
-        <v>520</v>
+        <v>390</v>
       </c>
       <c r="C45" s="0">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D45" s="0">
-        <v>51.855832895406117</v>
+        <v>76.40687461534533</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="B46" s="0">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="C46" s="0">
-        <v>40.99999945927668</v>
+        <v>17</v>
       </c>
       <c r="D46" s="0">
-        <v>52.554209967906758</v>
+        <v>77.497639482418393</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="B47" s="0">
-        <v>490</v>
+        <v>350</v>
       </c>
       <c r="C47" s="0">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D47" s="0">
-        <v>52.801123549801972</v>
+        <v>79.790958772753143</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="B48" s="0">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="C48" s="0">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D48" s="0">
-        <v>53.560617220688037</v>
+        <v>82.483541176320401</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="B49" s="0">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="C49" s="0">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D49" s="0">
-        <v>54.810617220688037</v>
+        <v>82.971346054369178</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>540</v>
+        <v>290</v>
       </c>
       <c r="B50" s="0">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="C50" s="0">
-        <v>27</v>
+        <v>24.61337882406934</v>
       </c>
       <c r="D50" s="0">
-        <v>55.226562386091899</v>
+        <v>84.357903131127415</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>530</v>
+        <v>320</v>
       </c>
       <c r="B51" s="0">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="C51" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D51" s="0">
-        <v>55.590198749728273</v>
+        <v>86.414950026836877</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="B52" s="0">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C52" s="0">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D52" s="0">
-        <v>56.923532083061602</v>
+        <v>87.524137134580485</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="B53" s="0">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="C53" s="0">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D53" s="0">
-        <v>57.529592689122211</v>
+        <v>88.029213406856584</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="B54" s="0">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="C54" s="0">
-        <v>33</v>
+        <v>24.61337882406934</v>
       </c>
       <c r="D54" s="0">
-        <v>59.619144927928183</v>
+        <v>91.365795471325796</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>390</v>
+        <v>480</v>
       </c>
       <c r="B55" s="0">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="C55" s="0">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D55" s="0">
-        <v>59.917652390614748</v>
+        <v>93.341647325928619</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="B56" s="0">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="C56" s="0">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D56" s="0">
-        <v>61.486581471720221</v>
+        <v>93.705283689564979</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>290</v>
+        <v>530</v>
       </c>
       <c r="B57" s="0">
-        <v>360</v>
+        <v>140</v>
       </c>
       <c r="C57" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D57" s="0">
-        <v>63.497254538908258</v>
+        <v>95.038617022898308</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>290</v>
+        <v>540</v>
       </c>
       <c r="B58" s="0">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="C58" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D58" s="0">
-        <v>63.860890902544632</v>
+        <v>95.346309330590614</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="B59" s="0">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="C59" s="0">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D59" s="0">
-        <v>65.387967060180799</v>
+        <v>95.934544624708266</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>310</v>
+        <v>580</v>
       </c>
       <c r="B60" s="0">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="C60" s="0">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D60" s="0">
-        <v>66.860504783615681</v>
+        <v>96.490100180263823</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>320</v>
+        <v>590</v>
       </c>
       <c r="B61" s="0">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="C61" s="0">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D61" s="0">
-        <v>67.593641825418885</v>
+        <v>96.756766846930489</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>360</v>
+        <v>650</v>
       </c>
       <c r="B62" s="0">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="C62" s="0">
-        <v>28.094924364570311</v>
+        <v>37</v>
       </c>
       <c r="D62" s="0">
-        <v>69.508139325946658</v>
+        <v>98.356766846930483</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>380</v>
+        <v>710</v>
       </c>
       <c r="B63" s="0">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C63" s="0">
-        <v>29</v>
+        <v>32.589046926199423</v>
       </c>
       <c r="D63" s="0">
-        <v>70.498919909763785</v>
+        <v>100.1049622308245</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>430</v>
+        <v>810</v>
       </c>
       <c r="B64" s="0">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C64" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D64" s="0">
-        <v>72.598304905643403</v>
+        <v>104.0563770344983</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>450</v>
+        <v>870</v>
       </c>
       <c r="B65" s="0">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="C65" s="0">
-        <v>33.065088450870697</v>
+        <v>24.61337882406934</v>
       </c>
       <c r="D65" s="0">
-        <v>73.285637553838669</v>
+        <v>107.54730137651811</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>480</v>
+        <v>910</v>
       </c>
       <c r="B66" s="0">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="C66" s="0">
-        <v>34</v>
+        <v>27.439894486170861</v>
       </c>
       <c r="D66" s="0">
-        <v>74.228684892838288</v>
+        <v>110.6449961939975</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>540</v>
+        <v>920</v>
       </c>
       <c r="B67" s="0">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="C67" s="0">
-        <v>29.324532412149409</v>
+        <v>27</v>
       </c>
       <c r="D67" s="0">
-        <v>76.123685067793815</v>
+        <v>112.1597330113751</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>600</v>
+        <v>920</v>
       </c>
       <c r="B68" s="0">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="C68" s="0">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D68" s="0">
-        <v>77.830059726593092</v>
+        <v>112.5233693750114</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>610</v>
+        <v>920</v>
       </c>
       <c r="B69" s="0">
-        <v>130</v>
+        <v>420</v>
       </c>
       <c r="C69" s="0">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D69" s="0">
-        <v>78.073962165617488</v>
+        <v>113.8567027083448</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>630</v>
+        <v>920</v>
       </c>
       <c r="B70" s="0">
-        <v>130</v>
+        <v>430</v>
       </c>
       <c r="C70" s="0">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D70" s="0">
-        <v>78.561767043666265</v>
+        <v>114.1643950160371</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>710</v>
+        <v>920</v>
       </c>
       <c r="B71" s="0">
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="C71" s="0">
-        <v>36.487489645695547</v>
+        <v>34</v>
       </c>
       <c r="D71" s="0">
-        <v>80.642685598432323</v>
+        <v>114.46290247872361</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>770</v>
+        <v>920</v>
       </c>
       <c r="B72" s="0">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="C72" s="0">
-        <v>30.901249262748841</v>
+        <v>35</v>
       </c>
       <c r="D72" s="0">
-        <v>82.519721857837453</v>
+        <v>114.7527575511874</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="B73" s="0">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C73" s="0">
-        <v>28.190922360260231</v>
+        <v>39</v>
       </c>
       <c r="D73" s="0">
-        <v>84.686886834708815</v>
+        <v>116.1041089025388</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>830</v>
+        <v>920</v>
       </c>
       <c r="B74" s="0">
-        <v>210</v>
+        <v>520</v>
       </c>
       <c r="C74" s="0">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D74" s="0">
-        <v>85.164734959380908</v>
+        <v>116.6041089025388</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>850</v>
+        <v>920</v>
       </c>
       <c r="B75" s="0">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="C75" s="0">
-        <v>33.837042766453848</v>
+        <v>41</v>
       </c>
       <c r="D75" s="0">
-        <v>86.276923647088751</v>
+        <v>116.84801134156319</v>
       </c>
     </row>
     <row r="76">
